--- a/Documentation/Working_Files/Customizable_Beverage_Can_Opener_BOM.xlsx
+++ b/Documentation/Working_Files/Customizable_Beverage_Can_Opener_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristinam\NSS\Downloads\GitHub\GitHub\Documentation\Working_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED4A7B-D24B-4695-82E7-4F524C409F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72223583-9524-4CAF-96B7-C5419137980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Total Cost</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Total Print Cost:</t>
   </si>
   <si>
-    <t>Add GitHub Link when complete</t>
-  </si>
-  <si>
     <t>Cylindrical_Handle.stl</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>Date Created: 9/01/2021</t>
+  </si>
+  <si>
+    <t>https://github.com/makersmakingchange/customizable-beverage-can-opener/blob/main/Build_Files/3D_Printing_Files/Base_Can_Opener.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/makersmakingchange/customizable-beverage-can-opener/blob/main/Build_Files/3D_Printing_Files/Cylindrical_Handle.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/makersmakingchange/customizable-beverage-can-opener/blob/main/Build_Files/3D_Printing_Files/Flat_Handle.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/makersmakingchange/customizable-beverage-can-opener/blob/main/Build_Files/3D_Printing_Files/Loop_Handle.stl</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -715,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(G3:G3)+E9</f>
@@ -767,10 +776,10 @@
     </row>
     <row r="5" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -786,15 +795,15 @@
         <v>70</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -810,15 +819,15 @@
         <v>190</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -834,15 +843,15 @@
         <v>143</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -858,7 +867,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -878,26 +887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d27786a72e09a52c769a64d5f7eeaa24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03ae89856d271009074f70b56337b48d" ns2:_="" ns3:_="">
     <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
@@ -1134,10 +1123,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BECD52-63A8-454F-82E6-6195B786F95C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1154,20 +1174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BECD52-63A8-454F-82E6-6195B786F95C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
-    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>